--- a/개인프로젝트_조하진/캐릭터 시트 - 복사본.xlsx
+++ b/개인프로젝트_조하진/캐릭터 시트 - 복사본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\개인프로젝트_조하진\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UnityProjects\FairyTaleChess\개인프로젝트_조하진\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3116CD8C-B51B-4E3D-BBC3-8C1605C436BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B58FB1-4E5F-418C-92E7-09375B0E8907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" firstSheet="3" activeTab="7" xr2:uid="{BD638DF2-6CCD-47DB-9D68-03F74730622D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" firstSheet="1" activeTab="2" xr2:uid="{BD638DF2-6CCD-47DB-9D68-03F74730622D}"/>
   </bookViews>
   <sheets>
     <sheet name="플레이어블" sheetId="1" r:id="rId1"/>
@@ -1978,7 +1978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2157,9 +2157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD4E6B7-D427-494A-B770-D1B751C777C9}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2845,7 +2845,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="A16:M39"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4380,7 +4380,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4653,7 +4653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613E1B72-A537-482B-9DB5-07FFB4E06D35}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
@@ -4938,7 +4938,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
